--- a/Sample/BenchMark.xlsx
+++ b/Sample/BenchMark.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Version</t>
   </si>
@@ -39,6 +39,9 @@
     <t>fixedpoint</t>
   </si>
   <si>
+    <t>double</t>
+  </si>
+  <si>
     <t>add</t>
   </si>
   <si>
@@ -61,6 +64,9 @@
   </si>
   <si>
     <t>log</t>
+  </si>
+  <si>
+    <t>log10</t>
   </si>
   <si>
     <t>exp</t>
@@ -94,7 +100,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,7 +110,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="5" tint="0.4"/>
+      <color rgb="FF3CF22F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -112,13 +118,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3CF22F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -595,46 +594,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -643,104 +645,101 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -754,9 +753,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1112,10 +1108,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1158,203 +1154,220 @@
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>312</v>
+        <v>47</v>
       </c>
       <c r="C4" s="3">
-        <v>360</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>328</v>
+        <v>47</v>
       </c>
       <c r="C5" s="3">
-        <v>344</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>312</v>
+        <v>47</v>
       </c>
       <c r="C6" s="3">
-        <v>313</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2">
-        <v>312</v>
-      </c>
-      <c r="C7" s="3">
-        <v>422</v>
+        <v>31</v>
+      </c>
+      <c r="C7" s="4">
+        <v>62</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2">
-        <v>359</v>
+        <v>47</v>
       </c>
       <c r="C8" s="4">
-        <v>1234</v>
+        <v>78</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2">
-        <v>578</v>
+        <v>63</v>
       </c>
       <c r="C9" s="4">
-        <v>3547</v>
+        <v>141</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2">
-        <v>687</v>
-      </c>
-      <c r="C10" s="4">
-        <v>1204</v>
+        <v>78</v>
+      </c>
+      <c r="C10" s="3">
+        <v>46</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2">
-        <v>797</v>
+        <v>47</v>
       </c>
       <c r="C11" s="4">
-        <v>2969</v>
+        <v>78</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2">
-        <v>422</v>
+        <v>47</v>
       </c>
       <c r="C12" s="4">
-        <v>656</v>
+        <v>78</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2">
-        <v>468</v>
-      </c>
-      <c r="C13" s="4">
-        <v>5547</v>
+        <v>47</v>
+      </c>
+      <c r="C13" s="3">
+        <v>46</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2">
-        <v>484</v>
+        <v>47</v>
       </c>
       <c r="C14" s="4">
-        <v>2438</v>
+        <v>109</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>1797</v>
+        <v>47</v>
       </c>
       <c r="C15" s="4">
-        <v>2469</v>
+        <v>94</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>1781</v>
+        <v>78</v>
       </c>
       <c r="C16" s="4">
-        <v>2312</v>
+        <v>140</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>641</v>
-      </c>
-      <c r="C17" s="5">
-        <v>516</v>
+        <v>62</v>
+      </c>
+      <c r="C17" s="4">
+        <v>157</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>406</v>
-      </c>
-      <c r="C18" s="4">
-        <v>1312</v>
+        <v>63</v>
+      </c>
+      <c r="C18" s="3">
+        <v>47</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="2">
+        <v>47</v>
+      </c>
+      <c r="C19" s="4">
+        <v>78</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Sample/BenchMark.xlsx
+++ b/Sample/BenchMark.xlsx
@@ -95,12 +95,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +120,73 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -131,18 +198,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -154,121 +214,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,12 +276,144 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -301,109 +426,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,49 +444,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,7 +489,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,17 +524,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,19 +536,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,26 +572,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,148 +587,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1111,7 +1104,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1322,10 +1315,10 @@
         <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C16" s="4">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1335,10 +1328,10 @@
         <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C17" s="4">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
